--- a/MCNP/wedge_data_2025-12-30.xlsx
+++ b/MCNP/wedge_data_2025-12-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C487AFCC-C518-4DBE-A628-3BEED745DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6786EADE-EAF7-48F5-963A-416B91B71FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,7 @@
         <v>2.3860027971425183E-5</v>
       </c>
       <c r="O4" s="24">
-        <f t="shared" ref="O4:O16" si="2">H4*Y4</f>
+        <f>H4*Y4</f>
         <v>2.3036288271325299E-5</v>
       </c>
       <c r="P4" s="24">
@@ -759,23 +759,23 @@
         <v>9.6617371521207075E-6</v>
       </c>
       <c r="S4" s="17">
-        <f t="shared" ref="S4:S13" si="3">Q4/O4</f>
+        <f t="shared" ref="S4:S13" si="2">Q4/O4</f>
         <v>0.74099606322234179</v>
       </c>
       <c r="V4" s="18">
-        <f t="shared" ref="V4:V16" si="4">E4*$F$33+F4*$F$34</f>
+        <f t="shared" ref="V4:V16" si="3">E4*$F$33+F4*$F$34</f>
         <v>2497.36564</v>
       </c>
       <c r="W4" s="17">
-        <f t="shared" ref="W4:W16" si="5">$F$27*$F$30</f>
+        <f t="shared" ref="W4:W16" si="4">$F$27*$F$30</f>
         <v>1.0471975511965979</v>
       </c>
       <c r="X4" s="17">
-        <f t="shared" ref="X4:X16" si="6">$F$26*$F$30</f>
+        <f t="shared" ref="X4:X16" si="5">$F$26*$F$30</f>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" ref="Y4:Y16" si="7">$F$30*$F$35*1E-24</f>
+        <f>$F$30*$F$35*1E-24</f>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -811,39 +811,39 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5">
-        <f t="shared" ref="N5:N16" si="8">(K5*135.4503007 + L5*385.1618156)/(135.4503007+385.1618156)</f>
+        <f t="shared" ref="N5:N16" si="6">(K5*135.4503007 + L5*385.1618156)/(135.4503007+385.1618156)</f>
         <v>0</v>
       </c>
       <c r="O5" s="20">
+        <f t="shared" ref="O4:O16" si="7">H5*Y5</f>
+        <v>1.1419027271653452E-4</v>
+      </c>
+      <c r="P5" s="24" t="e">
+        <f t="shared" ref="P5:P16" si="8">O5/N5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" ref="Q5:Q13" si="9">Y5*I5*W5/X5</f>
+        <v>4.0677435272966173E-5</v>
+      </c>
+      <c r="S5" s="6">
         <f t="shared" si="2"/>
-        <v>1.1419027271653452E-4</v>
-      </c>
-      <c r="P5" s="24" t="e">
-        <f t="shared" ref="P5:P16" si="9">O5/N5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="20">
-        <f t="shared" ref="Q5:Q13" si="10">Y5*I5*W5/X5</f>
-        <v>4.0677435272966173E-5</v>
-      </c>
-      <c r="S5" s="6">
+        <v>0.35622504706634406</v>
+      </c>
+      <c r="V5" s="19">
         <f t="shared" si="3"/>
-        <v>0.35622504706634406</v>
-      </c>
-      <c r="V5" s="19">
+        <v>1116.8558350000001</v>
+      </c>
+      <c r="W5" s="6">
         <f t="shared" si="4"/>
-        <v>1116.8558350000001</v>
-      </c>
-      <c r="W5" s="6">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X5" s="6">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X5" s="6">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Y4:Y16" si="10">$F$30*$F$35*1E-24</f>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -877,40 +877,40 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="7"/>
+        <v>3.4105812551431171E-4</v>
+      </c>
+      <c r="P6" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <f t="shared" si="2"/>
-        <v>3.4105812551431171E-4</v>
-      </c>
-      <c r="P6" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="16">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="16">
-        <f t="shared" si="10"/>
         <v>1.1173401302046825E-4</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="17">
+        <f t="shared" si="2"/>
+        <v>0.32760988424472998</v>
+      </c>
+      <c r="V6" s="18">
         <f t="shared" si="3"/>
-        <v>0.32760988424472998</v>
-      </c>
-      <c r="V6" s="18">
+        <v>644.81707199999994</v>
+      </c>
+      <c r="W6" s="17">
         <f t="shared" si="4"/>
-        <v>644.81707199999994</v>
-      </c>
-      <c r="W6" s="17">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X6" s="17">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X6" s="17">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -944,40 +944,40 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="7"/>
+        <v>3.2191773980845498E-3</v>
+      </c>
+      <c r="P7" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <f t="shared" si="2"/>
-        <v>3.2191773980845498E-3</v>
-      </c>
-      <c r="P7" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="20">
-        <f t="shared" si="10"/>
         <v>1.2162138097593109E-3</v>
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.37780266799927614</v>
+      </c>
+      <c r="V7" s="19">
         <f t="shared" si="3"/>
-        <v>0.37780266799927614</v>
-      </c>
-      <c r="V7" s="19">
+        <v>203.90905599999999</v>
+      </c>
+      <c r="W7" s="6">
         <f t="shared" si="4"/>
-        <v>203.90905599999999</v>
-      </c>
-      <c r="W7" s="6">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X7" s="6">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X7" s="6">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1011,40 +1011,40 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <f t="shared" si="7"/>
+        <v>6.184710281365767E-3</v>
+      </c>
+      <c r="P8" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <f t="shared" si="2"/>
-        <v>6.184710281365767E-3</v>
-      </c>
-      <c r="P8" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="16">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="16">
-        <f t="shared" si="10"/>
         <v>2.4785473380077496E-3</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.40075399254763683</v>
+      </c>
+      <c r="V8" s="18">
         <f t="shared" si="3"/>
-        <v>0.40075399254763683</v>
-      </c>
-      <c r="V8" s="18">
+        <v>144.18546400000002</v>
+      </c>
+      <c r="W8" s="17">
         <f t="shared" si="4"/>
-        <v>144.18546400000002</v>
-      </c>
-      <c r="W8" s="17">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X8" s="17">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X8" s="17">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1078,40 +1078,40 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="7"/>
+        <v>1.1439487759283634E-2</v>
+      </c>
+      <c r="P9" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <f t="shared" si="2"/>
-        <v>1.1439487759283634E-2</v>
-      </c>
-      <c r="P9" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" s="20">
-        <f t="shared" si="10"/>
         <v>4.7564390583706186E-3</v>
       </c>
       <c r="R9" s="12"/>
       <c r="S9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.41579126255111942</v>
+      </c>
+      <c r="V9" s="19">
         <f t="shared" si="3"/>
-        <v>0.41579126255111942</v>
-      </c>
-      <c r="V9" s="19">
+        <v>101.954487</v>
+      </c>
+      <c r="W9" s="6">
         <f t="shared" si="4"/>
-        <v>101.954487</v>
-      </c>
-      <c r="W9" s="6">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X9" s="6">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X9" s="6">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1145,40 +1145,40 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="7"/>
+        <v>1.701770113062949E-2</v>
+      </c>
+      <c r="P10" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <f t="shared" si="2"/>
-        <v>1.701770113062949E-2</v>
-      </c>
-      <c r="P10" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="16">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" s="16">
-        <f t="shared" si="10"/>
         <v>6.6969727886011772E-3</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="17">
+        <f t="shared" si="2"/>
+        <v>0.39352981564281675</v>
+      </c>
+      <c r="V10" s="18">
         <f t="shared" si="3"/>
-        <v>0.39352981564281675</v>
-      </c>
-      <c r="V10" s="18">
+        <v>83.245516999999992</v>
+      </c>
+      <c r="W10" s="17">
         <f t="shared" si="4"/>
-        <v>83.245516999999992</v>
-      </c>
-      <c r="W10" s="17">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X10" s="17">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X10" s="17">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1212,40 +1212,40 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="7"/>
+        <v>2.0533810445283004E-2</v>
+      </c>
+      <c r="P11" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <f t="shared" si="2"/>
-        <v>2.0533810445283004E-2</v>
-      </c>
-      <c r="P11" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="10"/>
         <v>9.5557269332098606E-3</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.46536549846280417</v>
+      </c>
+      <c r="V11" s="19">
         <f t="shared" si="3"/>
-        <v>0.46536549846280417</v>
-      </c>
-      <c r="V11" s="19">
+        <v>72.092732000000012</v>
+      </c>
+      <c r="W11" s="6">
         <f t="shared" si="4"/>
-        <v>72.092732000000012</v>
-      </c>
-      <c r="W11" s="6">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X11" s="6">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X11" s="6">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1283,40 +1283,40 @@
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="23">
+        <f t="shared" si="6"/>
+        <v>2.5457198057043526E-2</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" si="7"/>
+        <v>2.4628237991262909E-2</v>
+      </c>
+      <c r="P12" s="25">
         <f t="shared" si="8"/>
-        <v>2.5457198057043526E-2</v>
-      </c>
-      <c r="O12" s="24">
-        <f t="shared" si="2"/>
-        <v>2.4628237991262909E-2</v>
-      </c>
-      <c r="P12" s="25">
+        <v>0.9674371050606938</v>
+      </c>
+      <c r="Q12" s="16">
         <f t="shared" si="9"/>
-        <v>0.9674371050606938</v>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="10"/>
         <v>1.1710326979369369E-2</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="17">
+        <f t="shared" si="2"/>
+        <v>0.47548375094977208</v>
+      </c>
+      <c r="V12" s="18">
         <f t="shared" si="3"/>
-        <v>0.47548375094977208</v>
-      </c>
-      <c r="V12" s="18">
+        <v>64.481722000000005</v>
+      </c>
+      <c r="W12" s="17">
         <f t="shared" si="4"/>
-        <v>64.481722000000005</v>
-      </c>
-      <c r="W12" s="17">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X12" s="17">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X12" s="17">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1350,40 +1350,40 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="7"/>
+        <v>3.7042584251032955E-2</v>
+      </c>
+      <c r="P13" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
-        <f t="shared" si="2"/>
-        <v>3.7042584251032955E-2</v>
-      </c>
-      <c r="P13" s="24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="10"/>
         <v>1.8880855273974081E-2</v>
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.50970675118185305</v>
+      </c>
+      <c r="V13" s="19">
         <f t="shared" si="3"/>
-        <v>0.50970675118185305</v>
-      </c>
-      <c r="V13" s="19">
+        <v>49.947261000000005</v>
+      </c>
+      <c r="W13" s="6">
         <f t="shared" si="4"/>
-        <v>49.947261000000005</v>
-      </c>
-      <c r="W13" s="6">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X13" s="6">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X13" s="6">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1415,33 +1415,33 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="7"/>
+        <v>6.4200422956744704E-2</v>
+      </c>
+      <c r="P14" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
-        <f t="shared" si="2"/>
-        <v>6.4200422956744704E-2</v>
-      </c>
-      <c r="P14" s="24" t="e">
-        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="15"/>
       <c r="V14" s="18">
+        <f t="shared" si="3"/>
+        <v>35.318100999999999</v>
+      </c>
+      <c r="W14" s="17">
         <f t="shared" si="4"/>
-        <v>35.318100999999999</v>
-      </c>
-      <c r="W14" s="17">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X14" s="17">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X14" s="17">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1473,33 +1473,33 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="7"/>
+        <v>8.9268889091111095E-2</v>
+      </c>
+      <c r="P15" s="24" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <f t="shared" si="2"/>
-        <v>8.9268889091111095E-2</v>
-      </c>
-      <c r="P15" s="24" t="e">
-        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="12"/>
       <c r="V15" s="19">
+        <f t="shared" si="3"/>
+        <v>28.837060000000001</v>
+      </c>
+      <c r="W15" s="6">
         <f t="shared" si="4"/>
-        <v>28.837060000000001</v>
-      </c>
-      <c r="W15" s="6">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X15" s="6">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X15" s="6">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
         <v>0.13306499999999999</v>
       </c>
       <c r="N16" s="23">
+        <f t="shared" si="6"/>
+        <v>0.11689327133283918</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="7"/>
+        <v>0.11332889346861622</v>
+      </c>
+      <c r="P16" s="25">
         <f t="shared" si="8"/>
-        <v>0.11689327133283918</v>
-      </c>
-      <c r="O16" s="24">
-        <f t="shared" si="2"/>
-        <v>0.11332889346861622</v>
-      </c>
-      <c r="P16" s="25">
-        <f t="shared" si="9"/>
         <v>0.96950741626458692</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="V16" s="18">
+        <f t="shared" si="3"/>
+        <v>24.973652999999999</v>
+      </c>
+      <c r="W16" s="17">
         <f t="shared" si="4"/>
-        <v>24.973652999999999</v>
-      </c>
-      <c r="W16" s="17">
+        <v>1.0471975511965979</v>
+      </c>
+      <c r="X16" s="17">
         <f t="shared" si="5"/>
-        <v>1.0471975511965979</v>
-      </c>
-      <c r="X16" s="17">
-        <f t="shared" si="6"/>
         <v>0.53616514621265809</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.6406561619539597E-3</v>
       </c>
     </row>
